--- a/bot_udentify/istenen_magazalar_test_edilmis.xlsx
+++ b/bot_udentify/istenen_magazalar_test_edilmis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BD16F-6578-7E45-A2C7-AE3DE6E223AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D18C60-96FB-2B46-947B-16751C6C8C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Firma</t>
   </si>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A2:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>44239</v>
       </c>
       <c r="F4">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -576,8 +576,30 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>318</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44239</v>
+      </c>
+      <c r="F5">
+        <v>234</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/bot_udentify/istenen_magazalar_test_edilmis.xlsx
+++ b/bot_udentify/istenen_magazalar_test_edilmis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D18C60-96FB-2B46-947B-16751C6C8C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B729BA9-5C5A-654D-B8B9-E8AC1220367E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Firma</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Ankara Forum</t>
+  </si>
+  <si>
+    <t>ebebek</t>
+  </si>
+  <si>
+    <t>ebebek bostancı</t>
+  </si>
+  <si>
+    <t>[["8.3-Güneş Ürunleri","5 SAMSUNG TV"],["5 VESTEL TV","36 BOSCH"]]</t>
   </si>
 </sst>
 </file>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,6 +636,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44239</v>
+      </c>
+      <c r="F10">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
